--- a/Code/Results/Cases/Case_0_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.985957185420764</v>
+        <v>1.036628954199312</v>
       </c>
       <c r="D2">
-        <v>1.000903047428408</v>
+        <v>1.046688860746184</v>
       </c>
       <c r="E2">
-        <v>1.001664340249654</v>
+        <v>1.045267709502108</v>
       </c>
       <c r="F2">
-        <v>1.007437412874794</v>
+        <v>1.055682049324105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.008566183719682</v>
+        <v>1.041736231222188</v>
       </c>
       <c r="K2">
-        <v>1.012349815686815</v>
+        <v>1.049453594503636</v>
       </c>
       <c r="L2">
-        <v>1.01310053676624</v>
+        <v>1.048036428021583</v>
       </c>
       <c r="M2">
-        <v>1.018794096108856</v>
+        <v>1.058421836660962</v>
       </c>
       <c r="N2">
-        <v>1.006047497952996</v>
+        <v>1.017722173393022</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9917264772155147</v>
+        <v>1.037852269132868</v>
       </c>
       <c r="D3">
-        <v>1.006113355533829</v>
+        <v>1.047854453719565</v>
       </c>
       <c r="E3">
-        <v>1.006622252648524</v>
+        <v>1.046375019582421</v>
       </c>
       <c r="F3">
-        <v>1.012923712683541</v>
+        <v>1.056917394539847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.012445256343159</v>
+        <v>1.042602211564488</v>
       </c>
       <c r="K3">
-        <v>1.016668607889359</v>
+        <v>1.050429961693895</v>
       </c>
       <c r="L3">
-        <v>1.017171095972883</v>
+        <v>1.048954373455116</v>
       </c>
       <c r="M3">
-        <v>1.023393860179625</v>
+        <v>1.059469596166919</v>
       </c>
       <c r="N3">
-        <v>1.007429004458783</v>
+        <v>1.01802112361675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9953740602754546</v>
+        <v>1.038644269418575</v>
       </c>
       <c r="D4">
-        <v>1.00941418084898</v>
+        <v>1.048609449522055</v>
       </c>
       <c r="E4">
-        <v>1.009763446532433</v>
+        <v>1.047092223342602</v>
       </c>
       <c r="F4">
-        <v>1.016400236809452</v>
+        <v>1.057717696286038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.014896842880448</v>
+        <v>1.043162496199084</v>
       </c>
       <c r="K4">
-        <v>1.019400297470971</v>
+        <v>1.05106193894649</v>
       </c>
       <c r="L4">
-        <v>1.019745446405678</v>
+        <v>1.049548456834881</v>
       </c>
       <c r="M4">
-        <v>1.026304674334835</v>
+        <v>1.060147951975863</v>
       </c>
       <c r="N4">
-        <v>1.008300696921321</v>
+        <v>1.018214255462612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9968879653886414</v>
+        <v>1.038977331835795</v>
       </c>
       <c r="D5">
-        <v>1.010785704921944</v>
+        <v>1.048927037288179</v>
       </c>
       <c r="E5">
-        <v>1.011068694643527</v>
+        <v>1.047393904225826</v>
       </c>
       <c r="F5">
-        <v>1.017844974338263</v>
+        <v>1.058054371844491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.015914087709586</v>
+        <v>1.04339802569527</v>
       </c>
       <c r="K5">
-        <v>1.020534295686545</v>
+        <v>1.05132767152284</v>
       </c>
       <c r="L5">
-        <v>1.020814043983858</v>
+        <v>1.04979823691199</v>
       </c>
       <c r="M5">
-        <v>1.027513370002644</v>
+        <v>1.060433225944287</v>
       </c>
       <c r="N5">
-        <v>1.008662031740134</v>
+        <v>1.018295374207536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9971410371414462</v>
+        <v>1.039033260716112</v>
       </c>
       <c r="D6">
-        <v>1.011015064378226</v>
+        <v>1.048980372697275</v>
       </c>
       <c r="E6">
-        <v>1.011286973555793</v>
+        <v>1.047444567673858</v>
       </c>
       <c r="F6">
-        <v>1.018086589656905</v>
+        <v>1.05811091459519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.016084118074932</v>
+        <v>1.043437571327152</v>
       </c>
       <c r="K6">
-        <v>1.020723872311693</v>
+        <v>1.051372292110849</v>
       </c>
       <c r="L6">
-        <v>1.020992682068092</v>
+        <v>1.04984017771692</v>
       </c>
       <c r="M6">
-        <v>1.02771545409437</v>
+        <v>1.060481130190604</v>
       </c>
       <c r="N6">
-        <v>1.008722406470864</v>
+        <v>1.018308990071483</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.995394364725776</v>
+        <v>1.038648719398269</v>
       </c>
       <c r="D7">
-        <v>1.009432569683321</v>
+        <v>1.04861369240722</v>
       </c>
       <c r="E7">
-        <v>1.009780946573338</v>
+        <v>1.047096253754515</v>
       </c>
       <c r="F7">
-        <v>1.016419606428959</v>
+        <v>1.057722194061311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.01491048726683</v>
+        <v>1.043165643410378</v>
       </c>
       <c r="K7">
-        <v>1.019415505785277</v>
+        <v>1.051065489483198</v>
       </c>
       <c r="L7">
-        <v>1.019759777960099</v>
+        <v>1.049551794299763</v>
       </c>
       <c r="M7">
-        <v>1.026320883097533</v>
+        <v>1.06015176345326</v>
       </c>
       <c r="N7">
-        <v>1.008305544977752</v>
+        <v>1.018215339665466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9879252392251642</v>
+        <v>1.037042290401961</v>
       </c>
       <c r="D8">
-        <v>1.002678982912955</v>
+        <v>1.047082617601185</v>
       </c>
       <c r="E8">
-        <v>1.003354183643232</v>
+        <v>1.045641785660282</v>
       </c>
       <c r="F8">
-        <v>1.009307243952168</v>
+        <v>1.056099343807887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.009889598419341</v>
+        <v>1.042028906772424</v>
       </c>
       <c r="K8">
-        <v>1.013822787547861</v>
+        <v>1.049783520992138</v>
       </c>
       <c r="L8">
-        <v>1.014488911267899</v>
+        <v>1.048346629399699</v>
       </c>
       <c r="M8">
-        <v>1.020362601497532</v>
+        <v>1.05877585266336</v>
       </c>
       <c r="N8">
-        <v>1.006519111758317</v>
+        <v>1.017823269035325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9740631276814308</v>
+        <v>1.03421480480665</v>
       </c>
       <c r="D9">
-        <v>0.9902010561133818</v>
+        <v>1.04439059172736</v>
       </c>
       <c r="E9">
-        <v>0.991482781351568</v>
+        <v>1.043084152173089</v>
       </c>
       <c r="F9">
-        <v>0.9961730383978347</v>
+        <v>1.053246907630094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.000566244444645</v>
+        <v>1.040025316128711</v>
       </c>
       <c r="K9">
-        <v>1.003455140508519</v>
+        <v>1.047526039081714</v>
       </c>
       <c r="L9">
-        <v>1.004715572707211</v>
+        <v>1.046223792402088</v>
       </c>
       <c r="M9">
-        <v>1.009328512042522</v>
+        <v>1.056354231511486</v>
       </c>
       <c r="N9">
-        <v>1.00319130368834</v>
+        <v>1.017130020759942</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9642814539917032</v>
+        <v>1.032331892453018</v>
       </c>
       <c r="D10">
-        <v>0.9814387667513238</v>
+        <v>1.042599826516326</v>
       </c>
       <c r="E10">
-        <v>0.9831490878132256</v>
+        <v>1.041382589948672</v>
       </c>
       <c r="F10">
-        <v>0.9869540625096532</v>
+        <v>1.051350076752665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9939875716571338</v>
+        <v>1.038689189921879</v>
       </c>
       <c r="K10">
-        <v>0.9961514367784968</v>
+        <v>1.046022009237241</v>
       </c>
       <c r="L10">
-        <v>0.9978294051513338</v>
+        <v>1.044809066756409</v>
       </c>
       <c r="M10">
-        <v>1.001562929327141</v>
+        <v>1.054741713125958</v>
       </c>
       <c r="N10">
-        <v>1.00083723946929</v>
+        <v>1.016666255919269</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9599004002439994</v>
+        <v>1.031517039518687</v>
       </c>
       <c r="D11">
-        <v>0.9775255111936509</v>
+        <v>1.041825319973305</v>
       </c>
       <c r="E11">
-        <v>0.9794280912546002</v>
+        <v>1.040646618621679</v>
       </c>
       <c r="F11">
-        <v>0.9828377659632583</v>
+        <v>1.050529848675587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9910420463399899</v>
+        <v>1.038110525614089</v>
       </c>
       <c r="K11">
-        <v>0.9928840847783824</v>
+        <v>1.045370961591956</v>
       </c>
       <c r="L11">
-        <v>0.9947486787106985</v>
+        <v>1.044196581433664</v>
       </c>
       <c r="M11">
-        <v>0.9980907604955699</v>
+        <v>1.054043910430266</v>
       </c>
       <c r="N11">
-        <v>0.9997821200950547</v>
+        <v>1.016465059624069</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9582495753261947</v>
+        <v>1.03121443390717</v>
       </c>
       <c r="D12">
-        <v>0.97605274783679</v>
+        <v>1.041537768601481</v>
       </c>
       <c r="E12">
-        <v>0.9780278319030272</v>
+        <v>1.040373367580796</v>
       </c>
       <c r="F12">
-        <v>0.981288718619997</v>
+        <v>1.050225345062095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9899323690341114</v>
+        <v>1.037895565842224</v>
       </c>
       <c r="K12">
-        <v>0.9916535842818676</v>
+        <v>1.045129163409233</v>
       </c>
       <c r="L12">
-        <v>0.9935884479873528</v>
+        <v>1.04396909107177</v>
       </c>
       <c r="M12">
-        <v>0.9967833968129505</v>
+        <v>1.053784778510911</v>
       </c>
       <c r="N12">
-        <v>0.9993844802315568</v>
+        <v>1.016390268627863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9586047747119772</v>
+        <v>1.031279340838263</v>
       </c>
       <c r="D13">
-        <v>0.9763695520420017</v>
+        <v>1.041599443266807</v>
       </c>
       <c r="E13">
-        <v>0.9783290329022657</v>
+        <v>1.04043197537818</v>
       </c>
       <c r="F13">
-        <v>0.9816219263684256</v>
+        <v>1.050290654650193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9901711209079943</v>
+        <v>1.037941676279388</v>
       </c>
       <c r="K13">
-        <v>0.9919183128451468</v>
+        <v>1.045181028606875</v>
       </c>
       <c r="L13">
-        <v>0.9938380592654599</v>
+        <v>1.044017887912624</v>
       </c>
       <c r="M13">
-        <v>0.9970646493564681</v>
+        <v>1.053840360353852</v>
       </c>
       <c r="N13">
-        <v>0.9994700401191751</v>
+        <v>1.016406314165964</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9597644321293997</v>
+        <v>1.031492024689016</v>
       </c>
       <c r="D14">
-        <v>0.9774041719125031</v>
+        <v>1.041801548144331</v>
       </c>
       <c r="E14">
-        <v>0.9793127223935972</v>
+        <v>1.040624029134005</v>
       </c>
       <c r="F14">
-        <v>0.9827101391107631</v>
+        <v>1.050504674941969</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9909506440775409</v>
+        <v>1.038092757347699</v>
       </c>
       <c r="K14">
-        <v>0.9927827219930642</v>
+        <v>1.045350973875878</v>
       </c>
       <c r="L14">
-        <v>0.9946531046462496</v>
+        <v>1.044177776730992</v>
       </c>
       <c r="M14">
-        <v>0.997983060562832</v>
+        <v>1.054022489225796</v>
       </c>
       <c r="N14">
-        <v>0.999749369880451</v>
+        <v>1.016458878555808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.960475768672969</v>
+        <v>1.031623075049672</v>
       </c>
       <c r="D15">
-        <v>0.9780390491676337</v>
+        <v>1.041926089456927</v>
       </c>
       <c r="E15">
-        <v>0.9799163670304147</v>
+        <v>1.04074237585382</v>
       </c>
       <c r="F15">
-        <v>0.9833779197961396</v>
+        <v>1.050636561808611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9914288377361847</v>
+        <v>1.038185840950287</v>
       </c>
       <c r="K15">
-        <v>0.9933130436865252</v>
+        <v>1.045455686690419</v>
       </c>
       <c r="L15">
-        <v>0.995153139710058</v>
+        <v>1.044276291325722</v>
       </c>
       <c r="M15">
-        <v>0.9985465487585585</v>
+        <v>1.054134713153811</v>
       </c>
       <c r="N15">
-        <v>0.9999207051736188</v>
+        <v>1.016491257555439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9645690073545652</v>
+        <v>1.03238598107879</v>
       </c>
       <c r="D16">
-        <v>0.9816958578116339</v>
+        <v>1.042651246949498</v>
       </c>
       <c r="E16">
-        <v>0.9833935671858424</v>
+        <v>1.041431451041526</v>
       </c>
       <c r="F16">
-        <v>0.9872245113635505</v>
+        <v>1.051404535895209</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9941809298411866</v>
+        <v>1.038727591492256</v>
       </c>
       <c r="K16">
-        <v>0.9963659792762053</v>
+        <v>1.046065221385821</v>
       </c>
       <c r="L16">
-        <v>0.9980316908126468</v>
+        <v>1.044849717407741</v>
       </c>
       <c r="M16">
-        <v>1.001790958211267</v>
+        <v>1.05478803290842</v>
       </c>
       <c r="N16">
-        <v>1.00090648149293</v>
+        <v>1.016679600568474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9670965149969147</v>
+        <v>1.032864653661016</v>
       </c>
       <c r="D17">
-        <v>0.9839568971236037</v>
+        <v>1.043106360846577</v>
       </c>
       <c r="E17">
-        <v>0.9855437889601496</v>
+        <v>1.041863907434799</v>
       </c>
       <c r="F17">
-        <v>0.9896031318335524</v>
+        <v>1.051886562472492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9958806080044077</v>
+        <v>1.039067386284309</v>
       </c>
       <c r="K17">
-        <v>0.9982521914947079</v>
+        <v>1.046447621001324</v>
       </c>
       <c r="L17">
-        <v>0.9998101263129887</v>
+        <v>1.045209438493404</v>
       </c>
       <c r="M17">
-        <v>1.003795945099814</v>
+        <v>1.055197956913117</v>
       </c>
       <c r="N17">
-        <v>1.001515016869638</v>
+        <v>1.016797640479036</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9685568453945355</v>
+        <v>1.033143899860673</v>
       </c>
       <c r="D18">
-        <v>0.9852643236789258</v>
+        <v>1.043371908650836</v>
       </c>
       <c r="E18">
-        <v>0.9867872151124054</v>
+        <v>1.042116230777755</v>
       </c>
       <c r="F18">
-        <v>0.9909786359054297</v>
+        <v>1.052167827833086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9968627240159236</v>
+        <v>1.039265572027012</v>
       </c>
       <c r="K18">
-        <v>0.9993423560930136</v>
+        <v>1.046670688303306</v>
       </c>
       <c r="L18">
-        <v>1.000837983770255</v>
+        <v>1.045419267461295</v>
       </c>
       <c r="M18">
-        <v>1.004954928268422</v>
+        <v>1.055437100072872</v>
       </c>
       <c r="N18">
-        <v>1.001866536506444</v>
+        <v>1.016866454215009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9690524662787691</v>
+        <v>1.033239123224477</v>
       </c>
       <c r="D19">
-        <v>0.9857082265996854</v>
+        <v>1.043462468483621</v>
       </c>
       <c r="E19">
-        <v>0.987209401172201</v>
+        <v>1.042202279925504</v>
       </c>
       <c r="F19">
-        <v>0.991445667775148</v>
+        <v>1.052263750316043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9971960559450993</v>
+        <v>1.039333146443852</v>
       </c>
       <c r="K19">
-        <v>0.9997124048134716</v>
+        <v>1.046746751930742</v>
       </c>
       <c r="L19">
-        <v>1.001186879774951</v>
+        <v>1.045490815402607</v>
       </c>
       <c r="M19">
-        <v>1.005348365964754</v>
+        <v>1.055518648775101</v>
       </c>
       <c r="N19">
-        <v>1.00198582397336</v>
+        <v>1.016889911659239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9668267887457471</v>
+        <v>1.03281329202847</v>
       </c>
       <c r="D20">
-        <v>0.9837154971715634</v>
+        <v>1.043057522385883</v>
       </c>
       <c r="E20">
-        <v>0.985314212125783</v>
+        <v>1.041817500810577</v>
       </c>
       <c r="F20">
-        <v>0.9893491693184393</v>
+        <v>1.051834834484117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9956992152910284</v>
+        <v>1.039030930646089</v>
       </c>
       <c r="K20">
-        <v>0.9980508640682297</v>
+        <v>1.046406591074809</v>
       </c>
       <c r="L20">
-        <v>0.9996203041706119</v>
+        <v>1.045170842826136</v>
       </c>
       <c r="M20">
-        <v>1.003581922349013</v>
+        <v>1.055153971672586</v>
       </c>
       <c r="N20">
-        <v>1.001450083818955</v>
+        <v>1.016784979736949</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9594236048082887</v>
+        <v>1.031429392762253</v>
       </c>
       <c r="D21">
-        <v>0.9771000434510581</v>
+        <v>1.04174202958385</v>
       </c>
       <c r="E21">
-        <v>0.9790235608087008</v>
+        <v>1.040567470745678</v>
       </c>
       <c r="F21">
-        <v>0.9823902533753289</v>
+        <v>1.05044164674046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9907215326146335</v>
+        <v>1.038048268246914</v>
       </c>
       <c r="K21">
-        <v>0.9925286499588023</v>
+        <v>1.045300928414386</v>
       </c>
       <c r="L21">
-        <v>0.994413542200411</v>
+        <v>1.044130693082613</v>
       </c>
       <c r="M21">
-        <v>0.9977131084577324</v>
+        <v>1.05396885508173</v>
       </c>
       <c r="N21">
-        <v>0.9996672750940498</v>
+        <v>1.016443401248345</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9546319947057071</v>
+        <v>1.03055966723822</v>
       </c>
       <c r="D22">
-        <v>0.9728287848172908</v>
+        <v>1.040915706534488</v>
       </c>
       <c r="E22">
-        <v>0.9749628774801513</v>
+        <v>1.039782229494367</v>
       </c>
       <c r="F22">
-        <v>0.9778979989122063</v>
+        <v>1.049566651776143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9875011601899464</v>
+        <v>1.037430324215214</v>
       </c>
       <c r="K22">
-        <v>0.9889584339679548</v>
+        <v>1.044605926805364</v>
       </c>
       <c r="L22">
-        <v>0.9910471940110943</v>
+        <v>1.043476789869258</v>
       </c>
       <c r="M22">
-        <v>0.9939203947815657</v>
+        <v>1.053224089518598</v>
       </c>
       <c r="N22">
-        <v>0.9985130548025001</v>
+        <v>1.016228303173801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9571856888711499</v>
+        <v>1.031020689237429</v>
       </c>
       <c r="D23">
-        <v>0.9751041326876452</v>
+        <v>1.041353682586395</v>
       </c>
       <c r="E23">
-        <v>0.9771259609554269</v>
+        <v>1.040198434561876</v>
       </c>
       <c r="F23">
-        <v>0.9802910045720687</v>
+        <v>1.050030412899814</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9892173037934837</v>
+        <v>1.037757918384761</v>
       </c>
       <c r="K23">
-        <v>0.9908607799457008</v>
+        <v>1.044974344377577</v>
       </c>
       <c r="L23">
-        <v>0.9928409153339922</v>
+        <v>1.04382342909795</v>
       </c>
       <c r="M23">
-        <v>0.9959411466265892</v>
+        <v>1.053618869736779</v>
       </c>
       <c r="N23">
-        <v>0.999128208522217</v>
+        <v>1.016342362465158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9669487093303401</v>
+        <v>1.032836500001689</v>
       </c>
       <c r="D24">
-        <v>0.9838246105502015</v>
+        <v>1.043079590113597</v>
       </c>
       <c r="E24">
-        <v>0.9854179811826226</v>
+        <v>1.041838469723028</v>
       </c>
       <c r="F24">
-        <v>0.9894639607358021</v>
+        <v>1.051858207803694</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9957812074454966</v>
+        <v>1.039047403413278</v>
       </c>
       <c r="K24">
-        <v>0.9981418661830347</v>
+        <v>1.046425130670559</v>
       </c>
       <c r="L24">
-        <v>0.999706105826259</v>
+        <v>1.045188282516837</v>
       </c>
       <c r="M24">
-        <v>1.003678662353603</v>
+        <v>1.055173846581577</v>
       </c>
       <c r="N24">
-        <v>1.001479434840105</v>
+        <v>1.016790700695544</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9777366038481018</v>
+        <v>1.034945403633324</v>
       </c>
       <c r="D25">
-        <v>0.9935007451830176</v>
+        <v>1.045085849569942</v>
       </c>
       <c r="E25">
-        <v>0.9946216839061343</v>
+        <v>1.043744736204954</v>
       </c>
       <c r="F25">
-        <v>0.9996455357390294</v>
+        <v>1.053983480794768</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.003037172991364</v>
+        <v>1.040543358842241</v>
       </c>
       <c r="K25">
-        <v>1.006200798583147</v>
+        <v>1.048109479202824</v>
       </c>
       <c r="L25">
-        <v>1.007304069037405</v>
+        <v>1.046772504994014</v>
       </c>
       <c r="M25">
-        <v>1.012249356801822</v>
+        <v>1.05697994007606</v>
       </c>
       <c r="N25">
-        <v>1.004074366034915</v>
+        <v>1.017309523504505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.036628954199312</v>
+        <v>0.9859571854207648</v>
       </c>
       <c r="D2">
-        <v>1.046688860746184</v>
+        <v>1.000903047428409</v>
       </c>
       <c r="E2">
-        <v>1.045267709502108</v>
+        <v>1.001664340249655</v>
       </c>
       <c r="F2">
-        <v>1.055682049324105</v>
+        <v>1.007437412874795</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.041736231222188</v>
+        <v>1.008566183719683</v>
       </c>
       <c r="K2">
-        <v>1.049453594503636</v>
+        <v>1.012349815686816</v>
       </c>
       <c r="L2">
-        <v>1.048036428021583</v>
+        <v>1.013100536766241</v>
       </c>
       <c r="M2">
-        <v>1.058421836660962</v>
+        <v>1.018794096108857</v>
       </c>
       <c r="N2">
-        <v>1.017722173393022</v>
+        <v>1.006047497952996</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.037852269132868</v>
+        <v>0.9917264772155144</v>
       </c>
       <c r="D3">
-        <v>1.047854453719565</v>
+        <v>1.006113355533829</v>
       </c>
       <c r="E3">
-        <v>1.046375019582421</v>
+        <v>1.006622252648523</v>
       </c>
       <c r="F3">
-        <v>1.056917394539847</v>
+        <v>1.01292371268354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.042602211564488</v>
+        <v>1.012445256343159</v>
       </c>
       <c r="K3">
-        <v>1.050429961693895</v>
+        <v>1.016668607889359</v>
       </c>
       <c r="L3">
-        <v>1.048954373455116</v>
+        <v>1.017171095972883</v>
       </c>
       <c r="M3">
-        <v>1.059469596166919</v>
+        <v>1.023393860179624</v>
       </c>
       <c r="N3">
-        <v>1.01802112361675</v>
+        <v>1.007429004458783</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.038644269418575</v>
+        <v>0.9953740602754553</v>
       </c>
       <c r="D4">
-        <v>1.048609449522055</v>
+        <v>1.009414180848981</v>
       </c>
       <c r="E4">
-        <v>1.047092223342602</v>
+        <v>1.009763446532433</v>
       </c>
       <c r="F4">
-        <v>1.057717696286038</v>
+        <v>1.016400236809453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.043162496199084</v>
+        <v>1.014896842880449</v>
       </c>
       <c r="K4">
-        <v>1.05106193894649</v>
+        <v>1.019400297470972</v>
       </c>
       <c r="L4">
-        <v>1.049548456834881</v>
+        <v>1.019745446405679</v>
       </c>
       <c r="M4">
-        <v>1.060147951975863</v>
+        <v>1.026304674334835</v>
       </c>
       <c r="N4">
-        <v>1.018214255462612</v>
+        <v>1.008300696921321</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.038977331835795</v>
+        <v>0.9968879653886404</v>
       </c>
       <c r="D5">
-        <v>1.048927037288179</v>
+        <v>1.010785704921943</v>
       </c>
       <c r="E5">
-        <v>1.047393904225826</v>
+        <v>1.011068694643526</v>
       </c>
       <c r="F5">
-        <v>1.058054371844491</v>
+        <v>1.017844974338262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.04339802569527</v>
+        <v>1.015914087709585</v>
       </c>
       <c r="K5">
-        <v>1.05132767152284</v>
+        <v>1.020534295686544</v>
       </c>
       <c r="L5">
-        <v>1.04979823691199</v>
+        <v>1.020814043983858</v>
       </c>
       <c r="M5">
-        <v>1.060433225944287</v>
+        <v>1.027513370002643</v>
       </c>
       <c r="N5">
-        <v>1.018295374207536</v>
+        <v>1.008662031740134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039033260716112</v>
+        <v>0.9971410371414468</v>
       </c>
       <c r="D6">
-        <v>1.048980372697275</v>
+        <v>1.011015064378227</v>
       </c>
       <c r="E6">
-        <v>1.047444567673858</v>
+        <v>1.011286973555793</v>
       </c>
       <c r="F6">
-        <v>1.05811091459519</v>
+        <v>1.018086589656906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.043437571327152</v>
+        <v>1.016084118074933</v>
       </c>
       <c r="K6">
-        <v>1.051372292110849</v>
+        <v>1.020723872311694</v>
       </c>
       <c r="L6">
-        <v>1.04984017771692</v>
+        <v>1.020992682068092</v>
       </c>
       <c r="M6">
-        <v>1.060481130190604</v>
+        <v>1.02771545409437</v>
       </c>
       <c r="N6">
-        <v>1.018308990071483</v>
+        <v>1.008722406470865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.038648719398269</v>
+        <v>0.9953943647257758</v>
       </c>
       <c r="D7">
-        <v>1.04861369240722</v>
+        <v>1.00943256968332</v>
       </c>
       <c r="E7">
-        <v>1.047096253754515</v>
+        <v>1.009780946573337</v>
       </c>
       <c r="F7">
-        <v>1.057722194061311</v>
+        <v>1.016419606428959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.043165643410378</v>
+        <v>1.014910487266829</v>
       </c>
       <c r="K7">
-        <v>1.051065489483198</v>
+        <v>1.019415505785277</v>
       </c>
       <c r="L7">
-        <v>1.049551794299763</v>
+        <v>1.019759777960098</v>
       </c>
       <c r="M7">
-        <v>1.06015176345326</v>
+        <v>1.026320883097532</v>
       </c>
       <c r="N7">
-        <v>1.018215339665466</v>
+        <v>1.008305544977752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.037042290401961</v>
+        <v>0.9879252392251646</v>
       </c>
       <c r="D8">
-        <v>1.047082617601185</v>
+        <v>1.002678982912955</v>
       </c>
       <c r="E8">
-        <v>1.045641785660282</v>
+        <v>1.003354183643232</v>
       </c>
       <c r="F8">
-        <v>1.056099343807887</v>
+        <v>1.009307243952168</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.042028906772424</v>
+        <v>1.009889598419341</v>
       </c>
       <c r="K8">
-        <v>1.049783520992138</v>
+        <v>1.013822787547861</v>
       </c>
       <c r="L8">
-        <v>1.048346629399699</v>
+        <v>1.014488911267899</v>
       </c>
       <c r="M8">
-        <v>1.05877585266336</v>
+        <v>1.020362601497533</v>
       </c>
       <c r="N8">
-        <v>1.017823269035325</v>
+        <v>1.006519111758317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.03421480480665</v>
+        <v>0.97406312768143</v>
       </c>
       <c r="D9">
-        <v>1.04439059172736</v>
+        <v>0.9902010561133809</v>
       </c>
       <c r="E9">
-        <v>1.043084152173089</v>
+        <v>0.9914827813515672</v>
       </c>
       <c r="F9">
-        <v>1.053246907630094</v>
+        <v>0.9961730383978334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.040025316128711</v>
+        <v>1.000566244444644</v>
       </c>
       <c r="K9">
-        <v>1.047526039081714</v>
+        <v>1.003455140508518</v>
       </c>
       <c r="L9">
-        <v>1.046223792402088</v>
+        <v>1.00471557270721</v>
       </c>
       <c r="M9">
-        <v>1.056354231511486</v>
+        <v>1.009328512042521</v>
       </c>
       <c r="N9">
-        <v>1.017130020759942</v>
+        <v>1.00319130368834</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.032331892453018</v>
+        <v>0.9642814539917037</v>
       </c>
       <c r="D10">
-        <v>1.042599826516326</v>
+        <v>0.9814387667513245</v>
       </c>
       <c r="E10">
-        <v>1.041382589948672</v>
+        <v>0.9831490878132262</v>
       </c>
       <c r="F10">
-        <v>1.051350076752665</v>
+        <v>0.9869540625096542</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.038689189921879</v>
+        <v>0.9939875716571343</v>
       </c>
       <c r="K10">
-        <v>1.046022009237241</v>
+        <v>0.9961514367784976</v>
       </c>
       <c r="L10">
-        <v>1.044809066756409</v>
+        <v>0.9978294051513343</v>
       </c>
       <c r="M10">
-        <v>1.054741713125958</v>
+        <v>1.001562929327142</v>
       </c>
       <c r="N10">
-        <v>1.016666255919269</v>
+        <v>1.000837239469291</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.031517039518687</v>
+        <v>0.959900400244001</v>
       </c>
       <c r="D11">
-        <v>1.041825319973305</v>
+        <v>0.9775255111936529</v>
       </c>
       <c r="E11">
-        <v>1.040646618621679</v>
+        <v>0.9794280912546018</v>
       </c>
       <c r="F11">
-        <v>1.050529848675587</v>
+        <v>0.98283776596326</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.038110525614089</v>
+        <v>0.9910420463399914</v>
       </c>
       <c r="K11">
-        <v>1.045370961591956</v>
+        <v>0.9928840847783842</v>
       </c>
       <c r="L11">
-        <v>1.044196581433664</v>
+        <v>0.9947486787107002</v>
       </c>
       <c r="M11">
-        <v>1.054043910430266</v>
+        <v>0.9980907604955717</v>
       </c>
       <c r="N11">
-        <v>1.016465059624069</v>
+        <v>0.9997821200950552</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.03121443390717</v>
+        <v>0.9582495753261941</v>
       </c>
       <c r="D12">
-        <v>1.041537768601481</v>
+        <v>0.9760527478367894</v>
       </c>
       <c r="E12">
-        <v>1.040373367580796</v>
+        <v>0.9780278319030268</v>
       </c>
       <c r="F12">
-        <v>1.050225345062095</v>
+        <v>0.9812887186199966</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.037895565842224</v>
+        <v>0.9899323690341111</v>
       </c>
       <c r="K12">
-        <v>1.045129163409233</v>
+        <v>0.9916535842818671</v>
       </c>
       <c r="L12">
-        <v>1.04396909107177</v>
+        <v>0.9935884479873522</v>
       </c>
       <c r="M12">
-        <v>1.053784778510911</v>
+        <v>0.9967833968129497</v>
       </c>
       <c r="N12">
-        <v>1.016390268627863</v>
+        <v>0.9993844802315568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.031279340838263</v>
+        <v>0.9586047747119775</v>
       </c>
       <c r="D13">
-        <v>1.041599443266807</v>
+        <v>0.9763695520420019</v>
       </c>
       <c r="E13">
-        <v>1.04043197537818</v>
+        <v>0.9783290329022658</v>
       </c>
       <c r="F13">
-        <v>1.050290654650193</v>
+        <v>0.9816219263684262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.037941676279388</v>
+        <v>0.9901711209079946</v>
       </c>
       <c r="K13">
-        <v>1.045181028606875</v>
+        <v>0.9919183128451471</v>
       </c>
       <c r="L13">
-        <v>1.044017887912624</v>
+        <v>0.9938380592654601</v>
       </c>
       <c r="M13">
-        <v>1.053840360353852</v>
+        <v>0.9970646493564684</v>
       </c>
       <c r="N13">
-        <v>1.016406314165964</v>
+        <v>0.9994700401191751</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.031492024689016</v>
+        <v>0.9597644321293997</v>
       </c>
       <c r="D14">
-        <v>1.041801548144331</v>
+        <v>0.977404171912503</v>
       </c>
       <c r="E14">
-        <v>1.040624029134005</v>
+        <v>0.9793127223935969</v>
       </c>
       <c r="F14">
-        <v>1.050504674941969</v>
+        <v>0.982710139110763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.038092757347699</v>
+        <v>0.9909506440775407</v>
       </c>
       <c r="K14">
-        <v>1.045350973875878</v>
+        <v>0.9927827219930642</v>
       </c>
       <c r="L14">
-        <v>1.044177776730992</v>
+        <v>0.9946531046462492</v>
       </c>
       <c r="M14">
-        <v>1.054022489225796</v>
+        <v>0.9979830605628319</v>
       </c>
       <c r="N14">
-        <v>1.016458878555808</v>
+        <v>0.999749369880451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.031623075049672</v>
+        <v>0.9604757686729695</v>
       </c>
       <c r="D15">
-        <v>1.041926089456927</v>
+        <v>0.9780390491676341</v>
       </c>
       <c r="E15">
-        <v>1.04074237585382</v>
+        <v>0.9799163670304152</v>
       </c>
       <c r="F15">
-        <v>1.050636561808611</v>
+        <v>0.9833779197961401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.038185840950287</v>
+        <v>0.9914288377361851</v>
       </c>
       <c r="K15">
-        <v>1.045455686690419</v>
+        <v>0.9933130436865255</v>
       </c>
       <c r="L15">
-        <v>1.044276291325722</v>
+        <v>0.9951531397100584</v>
       </c>
       <c r="M15">
-        <v>1.054134713153811</v>
+        <v>0.998546548758559</v>
       </c>
       <c r="N15">
-        <v>1.016491257555439</v>
+        <v>0.9999207051736189</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.03238598107879</v>
+        <v>0.964569007354565</v>
       </c>
       <c r="D16">
-        <v>1.042651246949498</v>
+        <v>0.9816958578116337</v>
       </c>
       <c r="E16">
-        <v>1.041431451041526</v>
+        <v>0.9833935671858421</v>
       </c>
       <c r="F16">
-        <v>1.051404535895209</v>
+        <v>0.9872245113635505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.038727591492256</v>
+        <v>0.9941809298411863</v>
       </c>
       <c r="K16">
-        <v>1.046065221385821</v>
+        <v>0.9963659792762051</v>
       </c>
       <c r="L16">
-        <v>1.044849717407741</v>
+        <v>0.9980316908126466</v>
       </c>
       <c r="M16">
-        <v>1.05478803290842</v>
+        <v>1.001790958211267</v>
       </c>
       <c r="N16">
-        <v>1.016679600568474</v>
+        <v>1.00090648149293</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.032864653661016</v>
+        <v>0.967096514996914</v>
       </c>
       <c r="D17">
-        <v>1.043106360846577</v>
+        <v>0.9839568971236032</v>
       </c>
       <c r="E17">
-        <v>1.041863907434799</v>
+        <v>0.9855437889601488</v>
       </c>
       <c r="F17">
-        <v>1.051886562472492</v>
+        <v>0.9896031318335516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.039067386284309</v>
+        <v>0.9958806080044071</v>
       </c>
       <c r="K17">
-        <v>1.046447621001324</v>
+        <v>0.9982521914947075</v>
       </c>
       <c r="L17">
-        <v>1.045209438493404</v>
+        <v>0.999810126312988</v>
       </c>
       <c r="M17">
-        <v>1.055197956913117</v>
+        <v>1.003795945099813</v>
       </c>
       <c r="N17">
-        <v>1.016797640479036</v>
+        <v>1.001515016869637</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.033143899860673</v>
+        <v>0.9685568453945349</v>
       </c>
       <c r="D18">
-        <v>1.043371908650836</v>
+        <v>0.9852643236789257</v>
       </c>
       <c r="E18">
-        <v>1.042116230777755</v>
+        <v>0.9867872151124052</v>
       </c>
       <c r="F18">
-        <v>1.052167827833086</v>
+        <v>0.9909786359054295</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.039265572027012</v>
+        <v>0.9968627240159234</v>
       </c>
       <c r="K18">
-        <v>1.046670688303306</v>
+        <v>0.9993423560930133</v>
       </c>
       <c r="L18">
-        <v>1.045419267461295</v>
+        <v>1.000837983770254</v>
       </c>
       <c r="M18">
-        <v>1.055437100072872</v>
+        <v>1.004954928268422</v>
       </c>
       <c r="N18">
-        <v>1.016866454215009</v>
+        <v>1.001866536506444</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.033239123224477</v>
+        <v>0.9690524662787686</v>
       </c>
       <c r="D19">
-        <v>1.043462468483621</v>
+        <v>0.9857082265996848</v>
       </c>
       <c r="E19">
-        <v>1.042202279925504</v>
+        <v>0.9872094011722008</v>
       </c>
       <c r="F19">
-        <v>1.052263750316043</v>
+        <v>0.9914456677751476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.039333146443852</v>
+        <v>0.9971960559450989</v>
       </c>
       <c r="K19">
-        <v>1.046746751930742</v>
+        <v>0.9997124048134711</v>
       </c>
       <c r="L19">
-        <v>1.045490815402607</v>
+        <v>1.001186879774951</v>
       </c>
       <c r="M19">
-        <v>1.055518648775101</v>
+        <v>1.005348365964754</v>
       </c>
       <c r="N19">
-        <v>1.016889911659239</v>
+        <v>1.00198582397336</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.03281329202847</v>
+        <v>0.9668267887457473</v>
       </c>
       <c r="D20">
-        <v>1.043057522385883</v>
+        <v>0.983715497171564</v>
       </c>
       <c r="E20">
-        <v>1.041817500810577</v>
+        <v>0.9853142121257833</v>
       </c>
       <c r="F20">
-        <v>1.051834834484117</v>
+        <v>0.9893491693184402</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.039030930646089</v>
+        <v>0.9956992152910289</v>
       </c>
       <c r="K20">
-        <v>1.046406591074809</v>
+        <v>0.9980508640682304</v>
       </c>
       <c r="L20">
-        <v>1.045170842826136</v>
+        <v>0.9996203041706125</v>
       </c>
       <c r="M20">
-        <v>1.055153971672586</v>
+        <v>1.003581922349014</v>
       </c>
       <c r="N20">
-        <v>1.016784979736949</v>
+        <v>1.001450083818955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.031429392762253</v>
+        <v>0.9594236048082875</v>
       </c>
       <c r="D21">
-        <v>1.04174202958385</v>
+        <v>0.9771000434510565</v>
       </c>
       <c r="E21">
-        <v>1.040567470745678</v>
+        <v>0.9790235608086992</v>
       </c>
       <c r="F21">
-        <v>1.05044164674046</v>
+        <v>0.9823902533753275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.038048268246914</v>
+        <v>0.9907215326146321</v>
       </c>
       <c r="K21">
-        <v>1.045300928414386</v>
+        <v>0.992528649958801</v>
       </c>
       <c r="L21">
-        <v>1.044130693082613</v>
+        <v>0.9944135422004096</v>
       </c>
       <c r="M21">
-        <v>1.05396885508173</v>
+        <v>0.9977131084577311</v>
       </c>
       <c r="N21">
-        <v>1.016443401248345</v>
+        <v>0.9996672750940493</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.03055966723822</v>
+        <v>0.9546319947057074</v>
       </c>
       <c r="D22">
-        <v>1.040915706534488</v>
+        <v>0.9728287848172911</v>
       </c>
       <c r="E22">
-        <v>1.039782229494367</v>
+        <v>0.9749628774801511</v>
       </c>
       <c r="F22">
-        <v>1.049566651776143</v>
+        <v>0.9778979989122065</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.037430324215214</v>
+        <v>0.9875011601899464</v>
       </c>
       <c r="K22">
-        <v>1.044605926805364</v>
+        <v>0.9889584339679549</v>
       </c>
       <c r="L22">
-        <v>1.043476789869258</v>
+        <v>0.9910471940110942</v>
       </c>
       <c r="M22">
-        <v>1.053224089518598</v>
+        <v>0.9939203947815658</v>
       </c>
       <c r="N22">
-        <v>1.016228303173801</v>
+        <v>0.9985130548025</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.031020689237429</v>
+        <v>0.9571856888711486</v>
       </c>
       <c r="D23">
-        <v>1.041353682586395</v>
+        <v>0.975104132687644</v>
       </c>
       <c r="E23">
-        <v>1.040198434561876</v>
+        <v>0.9771259609554259</v>
       </c>
       <c r="F23">
-        <v>1.050030412899814</v>
+        <v>0.9802910045720675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.037757918384761</v>
+        <v>0.9892173037934827</v>
       </c>
       <c r="K23">
-        <v>1.044974344377577</v>
+        <v>0.9908607799456997</v>
       </c>
       <c r="L23">
-        <v>1.04382342909795</v>
+        <v>0.992840915333991</v>
       </c>
       <c r="M23">
-        <v>1.053618869736779</v>
+        <v>0.9959411466265879</v>
       </c>
       <c r="N23">
-        <v>1.016342362465158</v>
+        <v>0.9991282085222166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.032836500001689</v>
+        <v>0.9669487093303409</v>
       </c>
       <c r="D24">
-        <v>1.043079590113597</v>
+        <v>0.9838246105502024</v>
       </c>
       <c r="E24">
-        <v>1.041838469723028</v>
+        <v>0.9854179811826232</v>
       </c>
       <c r="F24">
-        <v>1.051858207803694</v>
+        <v>0.9894639607358034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.039047403413278</v>
+        <v>0.9957812074454975</v>
       </c>
       <c r="K24">
-        <v>1.046425130670559</v>
+        <v>0.9981418661830358</v>
       </c>
       <c r="L24">
-        <v>1.045188282516837</v>
+        <v>0.99970610582626</v>
       </c>
       <c r="M24">
-        <v>1.055173846581577</v>
+        <v>1.003678662353604</v>
       </c>
       <c r="N24">
-        <v>1.016790700695544</v>
+        <v>1.001479434840106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.034945403633324</v>
+        <v>0.9777366038481033</v>
       </c>
       <c r="D25">
-        <v>1.045085849569942</v>
+        <v>0.9935007451830191</v>
       </c>
       <c r="E25">
-        <v>1.043744736204954</v>
+        <v>0.9946216839061356</v>
       </c>
       <c r="F25">
-        <v>1.053983480794768</v>
+        <v>0.9996455357390306</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.040543358842241</v>
+        <v>1.003037172991365</v>
       </c>
       <c r="K25">
-        <v>1.048109479202824</v>
+        <v>1.006200798583148</v>
       </c>
       <c r="L25">
-        <v>1.046772504994014</v>
+        <v>1.007304069037406</v>
       </c>
       <c r="M25">
-        <v>1.05697994007606</v>
+        <v>1.012249356801823</v>
       </c>
       <c r="N25">
-        <v>1.017309523504505</v>
+        <v>1.004074366034915</v>
       </c>
     </row>
   </sheetData>
